--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2012525.698368682</v>
+        <v>-2012962.014043129</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996842</v>
+        <v>218615.883499685</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>279.0585237747098</v>
       </c>
       <c r="X2" t="n">
-        <v>164.7767289267149</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>25.69818763257633</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>61.29749921689382</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -801,7 +801,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>268.6107013963114</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>91.96805294786968</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>311.1891448188474</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>24.33442936961231</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -993,7 +993,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>104.6790425649011</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>268.6107013963114</v>
       </c>
       <c r="V7" t="n">
-        <v>243.4438153256983</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.942222497388984</v>
+        <v>196.3747077436749</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -1221,16 +1221,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>77.47366505899349</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>188.8723197387454</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>138.9470600201527</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.61286095582759</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799213</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678984</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0484892653209</v>
+        <v>169.0959583954352</v>
       </c>
       <c r="H11" t="n">
         <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>79.194569388259</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091663</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
-        <v>160.4420255081129</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586886</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.33649786480709</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="12">
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101707</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790356</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548195</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126139</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F13" t="n">
-        <v>59.0613910094477</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G13" t="n">
-        <v>67.90335310247325</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831531</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>10.16823613813345</v>
       </c>
       <c r="T13" t="n">
-        <v>138.952706237445</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>191.4003800527419</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X13" t="n">
-        <v>137.045482048545</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
         <v>277.2012677100157</v>
@@ -1616,13 +1616,13 @@
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>79.0673274137493</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0484892653209</v>
+        <v>320.048489265321</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>175.9442408984735</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548195</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126139</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.0613910094477</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079554</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348596</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831531</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673262</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
         <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
-        <v>192.4238797007582</v>
+        <v>116.6167921741044</v>
       </c>
       <c r="V16" t="n">
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.06623991109549</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="17">
@@ -1926,7 +1926,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>122.8847593541863</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2135,7 +2135,7 @@
         <v>55.986291663842</v>
       </c>
       <c r="U20" t="n">
-        <v>86.20741778068896</v>
+        <v>86.2074177806891</v>
       </c>
       <c r="V20" t="n">
         <v>167.4804162205611</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2214,7 +2214,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>84.37298759326566</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612602</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.4533522189419</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.4346562634699</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333754</v>
+        <v>262.1767938333757</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213526</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187751</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970851</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.4279579417132</v>
+        <v>42.42795794171337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437083</v>
+        <v>56.695616754371</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472019</v>
+        <v>93.45428794472036</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615672</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014393</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793962</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121428</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083416</v>
+        <v>260.9453680083418</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595728</v>
+        <v>53.05874613595745</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135776</v>
+        <v>39.25874098135793</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893615</v>
+        <v>22.88010537893632</v>
       </c>
       <c r="E28" t="n">
-        <v>21.8278552347156</v>
+        <v>21.82785523471577</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290191</v>
+        <v>22.29477956290208</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424974</v>
+        <v>38.56948228424991</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694017</v>
+        <v>29.11784990694034</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09994509176951</v>
+        <v>14.09994509176968</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018682</v>
+        <v>19.36549471018699</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877057</v>
+        <v>82.91159610877074</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908992</v>
+        <v>102.1860947908994</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542124</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V28" t="n">
-        <v>129.4668825355829</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061961</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019992</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806693</v>
+        <v>91.1537383580671</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612602</v>
+        <v>261.4420352612603</v>
       </c>
       <c r="C29" t="n">
-        <v>249.4533522189419</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634699</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333754</v>
+        <v>262.1767938333756</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213526</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187751</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970851</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I29" t="n">
-        <v>42.4279579417132</v>
+        <v>42.42795794171334</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437083</v>
+        <v>56.69561675437097</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472019</v>
+        <v>93.45428794472033</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615672</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014393</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793962</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121428</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083416</v>
+        <v>260.9453680083417</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595728</v>
+        <v>53.05874613595742</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135776</v>
+        <v>39.2587409813579</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893615</v>
+        <v>22.88010537893629</v>
       </c>
       <c r="E31" t="n">
-        <v>21.8278552347156</v>
+        <v>21.82785523471574</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290191</v>
+        <v>22.29477956290205</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424974</v>
+        <v>38.56948228424989</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694017</v>
+        <v>29.11784990694031</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176951</v>
+        <v>14.09994509176965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018682</v>
+        <v>19.36549471018697</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877057</v>
+        <v>82.91159610877071</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908992</v>
+        <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542124</v>
+        <v>155.6572682542125</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355829</v>
+        <v>129.466882535583</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061961</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019992</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806693</v>
+        <v>91.15373835806707</v>
       </c>
     </row>
     <row r="32">
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4068,7 +4068,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1415.266473616825</v>
+        <v>1011.370959828515</v>
       </c>
       <c r="C2" t="n">
-        <v>1033.332714949632</v>
+        <v>1011.370959828515</v>
       </c>
       <c r="D2" t="n">
-        <v>1033.332714949632</v>
+        <v>638.5469950557388</v>
       </c>
       <c r="E2" t="n">
         <v>638.5469950557388</v>
@@ -4319,61 +4319,61 @@
         <v>224.3958043659091</v>
       </c>
       <c r="G2" t="n">
-        <v>212.3322218605012</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="H2" t="n">
-        <v>212.3322218605012</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J2" t="n">
-        <v>39.51502306929718</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K2" t="n">
-        <v>228.7015208236848</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086311</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M2" t="n">
-        <v>969.8260601617189</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.157418849435</v>
+        <v>1471.109837412635</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322269</v>
+        <v>1776.114421885469</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.318899778322</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464859</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464859</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464859</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.751153464859</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.751153464859</v>
+        <v>1630.227530674705</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.751153464859</v>
+        <v>1293.248256570646</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.751153464859</v>
+        <v>1011.370959828515</v>
       </c>
       <c r="X2" t="n">
-        <v>1809.310013134844</v>
+        <v>1011.370959828515</v>
       </c>
       <c r="Y2" t="n">
-        <v>1809.310013134844</v>
+        <v>1011.370959828515</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>534.335240886802</v>
+        <v>487.0853427812592</v>
       </c>
       <c r="C3" t="n">
-        <v>372.6315681277567</v>
+        <v>325.3816700222139</v>
       </c>
       <c r="D3" t="n">
-        <v>233.7929311179688</v>
+        <v>186.543033012426</v>
       </c>
       <c r="E3" t="n">
-        <v>233.7929311179688</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="F3" t="n">
-        <v>207.8351658325382</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="G3" t="n">
-        <v>207.8351658325382</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H3" t="n">
-        <v>107.8973083792362</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J3" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K3" t="n">
-        <v>39.51502306929718</v>
+        <v>269.0055756294858</v>
       </c>
       <c r="L3" t="n">
-        <v>149.6518896266374</v>
+        <v>634.8274207996014</v>
       </c>
       <c r="M3" t="n">
-        <v>634.6852431368638</v>
+        <v>634.8274207996014</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.683653619416</v>
+        <v>1123.683653619415</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403567</v>
+        <v>1515.883604403566</v>
       </c>
       <c r="P3" t="n">
-        <v>1817.979523679265</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464859</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559805</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572545</v>
+        <v>1913.834487589207</v>
       </c>
       <c r="T3" t="n">
-        <v>1574.48229373853</v>
+        <v>1725.149383755193</v>
       </c>
       <c r="U3" t="n">
-        <v>1355.98750133684</v>
+        <v>1506.654591353503</v>
       </c>
       <c r="V3" t="n">
-        <v>1127.591878785174</v>
+        <v>1278.258968801837</v>
       </c>
       <c r="W3" t="n">
-        <v>886.276010018484</v>
+        <v>1036.943100035147</v>
       </c>
       <c r="X3" t="n">
-        <v>886.276010018484</v>
+        <v>839.0261119129412</v>
       </c>
       <c r="Y3" t="n">
-        <v>693.7546836680629</v>
+        <v>646.5047855625201</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="C4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="D4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="E4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="F4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394058</v>
+        <v>73.11921081394057</v>
       </c>
       <c r="L4" t="n">
         <v>173.7262902142001</v>
@@ -4501,37 +4501,37 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870919</v>
+        <v>508.6057845870918</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="R4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="S4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="T4" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="U4" t="n">
-        <v>325.671424551898</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="V4" t="n">
-        <v>325.671424551898</v>
+        <v>310.8389638736522</v>
       </c>
       <c r="W4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="X4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>567.3278654180253</v>
+        <v>789.2963865207146</v>
       </c>
       <c r="C5" t="n">
-        <v>567.3278654180253</v>
+        <v>789.2963865207146</v>
       </c>
       <c r="D5" t="n">
-        <v>567.3278654180253</v>
+        <v>789.2963865207146</v>
       </c>
       <c r="E5" t="n">
-        <v>567.3278654180253</v>
+        <v>394.5106666268215</v>
       </c>
       <c r="F5" t="n">
-        <v>557.2170787685998</v>
+        <v>384.3998799773959</v>
       </c>
       <c r="G5" t="n">
-        <v>545.1534962631919</v>
+        <v>372.3362974719879</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605012</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J5" t="n">
         <v>111.5135673421028</v>
@@ -4574,43 +4574,43 @@
         <v>699.5393124718319</v>
       </c>
       <c r="M5" t="n">
-        <v>1092.77847872492</v>
+        <v>969.826060161718</v>
       </c>
       <c r="N5" t="n">
-        <v>1442.589672535972</v>
+        <v>1348.157418849434</v>
       </c>
       <c r="O5" t="n">
-        <v>1747.594257008806</v>
+        <v>1653.162003322268</v>
       </c>
       <c r="P5" t="n">
-        <v>1975.751153464859</v>
+        <v>1881.318899778321</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464859</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R5" t="n">
-        <v>1885.112866960712</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.883891591066</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="T5" t="n">
-        <v>1473.524945322077</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="U5" t="n">
-        <v>1218.639609036071</v>
+        <v>1882.854130285191</v>
       </c>
       <c r="V5" t="n">
-        <v>881.6603349320126</v>
+        <v>1545.874856181133</v>
       </c>
       <c r="W5" t="n">
-        <v>567.3278654180253</v>
+        <v>1183.339926038734</v>
       </c>
       <c r="X5" t="n">
-        <v>567.3278654180253</v>
+        <v>1183.339926038734</v>
       </c>
       <c r="Y5" t="n">
-        <v>567.3278654180253</v>
+        <v>1183.339926038734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>850.4454982614021</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="C6" t="n">
-        <v>688.7418255023568</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="D6" t="n">
-        <v>549.9031884925689</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="E6" t="n">
-        <v>402.8751785494402</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F6" t="n">
-        <v>268.1813804993146</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G6" t="n">
-        <v>139.4528805225991</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
-        <v>39.51502306929718</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J6" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K6" t="n">
-        <v>269.0055756294859</v>
+        <v>269.0055756294858</v>
       </c>
       <c r="L6" t="n">
         <v>634.8274207996014</v>
       </c>
       <c r="M6" t="n">
-        <v>634.8274207996014</v>
+        <v>1119.860774309828</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.683653619416</v>
+        <v>1608.85918479238</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403567</v>
+        <v>1608.85918479238</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.979523679265</v>
+        <v>1910.955104068077</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464859</v>
+        <v>1975.751153464858</v>
       </c>
       <c r="R6" t="n">
-        <v>1975.751153464859</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S6" t="n">
-        <v>1975.751153464859</v>
+        <v>1763.167397572544</v>
       </c>
       <c r="T6" t="n">
-        <v>1975.751153464859</v>
+        <v>1574.482293738529</v>
       </c>
       <c r="U6" t="n">
-        <v>1870.014746833646</v>
+        <v>1355.987501336839</v>
       </c>
       <c r="V6" t="n">
-        <v>1641.61912428198</v>
+        <v>1127.591878785173</v>
       </c>
       <c r="W6" t="n">
-        <v>1400.303255515289</v>
+        <v>886.2760100184829</v>
       </c>
       <c r="X6" t="n">
-        <v>1202.386267393084</v>
+        <v>688.3590218962775</v>
       </c>
       <c r="Y6" t="n">
-        <v>1009.864941042663</v>
+        <v>495.8376955458563</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="C7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="D7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394058</v>
+        <v>73.11921081394057</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142001</v>
@@ -4738,37 +4738,37 @@
         <v>410.1421380914022</v>
       </c>
       <c r="O7" t="n">
-        <v>508.6057845870919</v>
+        <v>508.6057845870918</v>
       </c>
       <c r="P7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="R7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="S7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152297</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="U7" t="n">
-        <v>571.5742683152297</v>
+        <v>300.2503275108746</v>
       </c>
       <c r="V7" t="n">
-        <v>325.671424551898</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="W7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="X7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.51502306929718</v>
+        <v>39.51502306929716</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1728.635225930301</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.701467263108</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D8" t="n">
-        <v>973.8775024903316</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>973.8775024903316</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W8" t="n">
-        <v>1738.677874917562</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.677874917562</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y8" t="n">
-        <v>1728.635225930301</v>
+        <v>64.19862525603281</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>703.195773126389</v>
+        <v>489.5945758131612</v>
       </c>
       <c r="C9" t="n">
-        <v>703.195773126389</v>
+        <v>327.8909030541159</v>
       </c>
       <c r="D9" t="n">
-        <v>564.3571361166011</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E9" t="n">
-        <v>417.3291261734723</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4896,10 +4896,10 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P9" t="n">
-        <v>2086.089750782109</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4914,19 +4914,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1509.163824385405</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1280.768201833739</v>
       </c>
       <c r="W9" t="n">
-        <v>1253.053530380276</v>
+        <v>1039.452333067049</v>
       </c>
       <c r="X9" t="n">
-        <v>1055.136542258071</v>
+        <v>841.5353449448434</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.6152159076499</v>
+        <v>649.0140185944222</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.3481969055543</v>
+        <v>351.9907913164409</v>
       </c>
       <c r="C10" t="n">
-        <v>313.3481969055543</v>
+        <v>182.3748217781212</v>
       </c>
       <c r="D10" t="n">
-        <v>160.276303733317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>160.276303733317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>160.276303733317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>160.276303733317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V10" t="n">
-        <v>313.3481969055543</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W10" t="n">
-        <v>313.3481969055543</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X10" t="n">
-        <v>313.3481969055543</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.3481969055543</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1597.667903912637</v>
+        <v>1063.233049833783</v>
       </c>
       <c r="C11" t="n">
-        <v>1597.667903912637</v>
+        <v>1063.233049833783</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.66662339747</v>
+        <v>783.2317693186158</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.703587761186</v>
+        <v>783.2317693186158</v>
       </c>
       <c r="F11" t="n">
-        <v>694.3750813289653</v>
+        <v>461.9032628863949</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0937790407624</v>
+        <v>291.0992645071674</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208574</v>
@@ -5051,13 +5051,13 @@
         <v>1377.290668540356</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.323542409812</v>
+        <v>1755.622027228072</v>
       </c>
       <c r="O11" t="n">
-        <v>2139.328126882646</v>
+        <v>2060.626611700906</v>
       </c>
       <c r="P11" t="n">
-        <v>2367.485023338699</v>
+        <v>2379.759020997842</v>
       </c>
       <c r="Q11" t="n">
         <v>2552.892789866119</v>
@@ -5075,16 +5075,16 @@
         <v>2167.028512952473</v>
       </c>
       <c r="V11" t="n">
-        <v>2167.028512952473</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="W11" t="n">
-        <v>1897.316267067683</v>
+        <v>1653.159677221234</v>
       </c>
       <c r="X11" t="n">
-        <v>1608.108810846786</v>
+        <v>1363.952221000336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1597.667903912637</v>
+        <v>1063.233049833783</v>
       </c>
     </row>
     <row r="12">
@@ -5142,10 +5142,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
         <v>2168.477475838063</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>426.9570749528771</v>
+        <v>501.0148547324814</v>
       </c>
       <c r="C13" t="n">
-        <v>350.1637896721664</v>
+        <v>424.2215694517707</v>
       </c>
       <c r="D13" t="n">
-        <v>289.914580757538</v>
+        <v>363.9723605371424</v>
       </c>
       <c r="E13" t="n">
-        <v>230.728250776466</v>
+        <v>304.7860305560703</v>
       </c>
       <c r="F13" t="n">
-        <v>171.070280059852</v>
+        <v>245.1280598394564</v>
       </c>
       <c r="G13" t="n">
-        <v>102.4810345017982</v>
+        <v>169.0309954649154</v>
       </c>
       <c r="H13" t="n">
         <v>102.4810345017982</v>
@@ -5197,19 +5197,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M13" t="n">
         <v>608.3453994601516</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506347</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5218,31 +5218,31 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q13" t="n">
-        <v>1214.33147454359</v>
+        <v>1214.331474543591</v>
       </c>
       <c r="R13" t="n">
-        <v>1214.33147454359</v>
+        <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1093.444396204887</v>
+        <v>1147.361431821504</v>
       </c>
       <c r="T13" t="n">
-        <v>953.0881272781749</v>
+        <v>1147.361431821504</v>
       </c>
       <c r="U13" t="n">
-        <v>758.7205720248839</v>
+        <v>952.9938765682125</v>
       </c>
       <c r="V13" t="n">
-        <v>758.7205720248839</v>
+        <v>785.0812563842442</v>
       </c>
       <c r="W13" t="n">
-        <v>565.3868547998923</v>
+        <v>591.7475391592523</v>
       </c>
       <c r="X13" t="n">
-        <v>426.9570749528771</v>
+        <v>591.7475391592523</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9570749528771</v>
+        <v>591.7475391592523</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1517.673389379043</v>
+        <v>1325.323354497939</v>
       </c>
       <c r="C14" t="n">
-        <v>1517.673389379043</v>
+        <v>1036.212280088356</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.672108863875</v>
+        <v>756.2109995731884</v>
       </c>
       <c r="E14" t="n">
-        <v>935.709073227591</v>
+        <v>454.2479639369042</v>
       </c>
       <c r="F14" t="n">
-        <v>614.3805667953704</v>
+        <v>374.3819766502888</v>
       </c>
       <c r="G14" t="n">
-        <v>291.0992645071674</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H14" t="n">
         <v>51.10067436208573</v>
@@ -5276,16 +5276,16 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>201.8007338166318</v>
       </c>
       <c r="K14" t="n">
-        <v>363.2395906796742</v>
+        <v>441.9411058614145</v>
       </c>
       <c r="L14" t="n">
-        <v>711.1249637646204</v>
+        <v>789.8264789463608</v>
       </c>
       <c r="M14" t="n">
-        <v>1183.065645199448</v>
+        <v>1183.065645199449</v>
       </c>
       <c r="N14" t="n">
         <v>1652.372516728047</v>
@@ -5303,25 +5303,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104287</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="T14" t="n">
-        <v>2555.033718104287</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="U14" t="n">
-        <v>2555.033718104287</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="V14" t="n">
-        <v>2377.312262651283</v>
+        <v>2216.4708371458</v>
       </c>
       <c r="W14" t="n">
-        <v>2107.600016766493</v>
+        <v>2216.4708371458</v>
       </c>
       <c r="X14" t="n">
-        <v>1818.392560545596</v>
+        <v>1927.263380924903</v>
       </c>
       <c r="Y14" t="n">
-        <v>1517.673389379043</v>
+        <v>1626.54420975835</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652224</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
         <v>119.4829596720247</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>424.2215694517706</v>
+        <v>254.1018913225275</v>
       </c>
       <c r="C16" t="n">
-        <v>424.2215694517706</v>
+        <v>177.3086060418168</v>
       </c>
       <c r="D16" t="n">
-        <v>363.9723605371423</v>
+        <v>177.3086060418168</v>
       </c>
       <c r="E16" t="n">
-        <v>304.7860305560702</v>
+        <v>177.3086060418168</v>
       </c>
       <c r="F16" t="n">
-        <v>245.1280598394563</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0309954649153</v>
+        <v>117.6506353252029</v>
       </c>
       <c r="H16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499904</v>
+        <v>83.21408766499901</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601515</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506344</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5455,31 +5455,31 @@
         <v>1161.126409956227</v>
       </c>
       <c r="Q16" t="n">
-        <v>1214.331474543591</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415578</v>
+        <v>1214.33147454359</v>
       </c>
       <c r="S16" t="n">
-        <v>1157.632377415578</v>
+        <v>1093.444396204887</v>
       </c>
       <c r="T16" t="n">
-        <v>1017.276108488866</v>
+        <v>953.0881272781746</v>
       </c>
       <c r="U16" t="n">
-        <v>822.9085532355745</v>
+        <v>835.2933877083724</v>
       </c>
       <c r="V16" t="n">
-        <v>654.9959330516061</v>
+        <v>667.3807675244041</v>
       </c>
       <c r="W16" t="n">
-        <v>461.6622158266145</v>
+        <v>474.0470502994123</v>
       </c>
       <c r="X16" t="n">
-        <v>461.6622158266145</v>
+        <v>474.0470502994123</v>
       </c>
       <c r="Y16" t="n">
-        <v>424.2215694517706</v>
+        <v>344.8345757492983</v>
       </c>
     </row>
     <row r="17">
@@ -5516,19 +5516,19 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>363.2395906796742</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L17" t="n">
-        <v>711.1249637646204</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.364130017708</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N17" t="n">
-        <v>1482.695488705424</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O17" t="n">
-        <v>1827.875829091314</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P17" t="n">
         <v>2220.500500038399</v>
@@ -5558,7 +5558,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C18" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D18" t="n">
         <v>629.8711250952965</v>
@@ -5616,28 +5616,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T18" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U18" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V18" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W18" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X18" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y18" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="19">
@@ -5656,43 +5656,43 @@
         <v>65.54268635500837</v>
       </c>
       <c r="E19" t="n">
-        <v>81.02642599070934</v>
+        <v>71.13131355855609</v>
       </c>
       <c r="F19" t="n">
-        <v>96.04791054150587</v>
+        <v>71.13131355855609</v>
       </c>
       <c r="G19" t="n">
-        <v>94.93529841688814</v>
+        <v>70.01870143393836</v>
       </c>
       <c r="H19" t="n">
-        <v>94.93529841688814</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="I19" t="n">
-        <v>96.20682289912145</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J19" t="n">
-        <v>96.20682289912145</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K19" t="n">
-        <v>129.8110106437649</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L19" t="n">
-        <v>230.4180900440244</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4115961716261</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N19" t="n">
-        <v>466.8339379212265</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>565.2975844169162</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>628.266068145054</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
         <v>628.266068145054</v>
@@ -5750,19 +5750,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K20" t="n">
-        <v>363.2395906796742</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L20" t="n">
-        <v>711.1249637646204</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.364130017708</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N20" t="n">
-        <v>1482.695488705424</v>
+        <v>1522.87124461848</v>
       </c>
       <c r="O20" t="n">
         <v>1827.875829091314</v>
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,13 +5853,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U21" t="n">
         <v>1949.982683436373</v>
@@ -5917,19 +5917,19 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N22" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O22" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P22" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q22" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R22" t="n">
         <v>629.3786802696717</v>
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478536</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614927</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791953</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409155</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L23" t="n">
-        <v>875.5927382556529</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M23" t="n">
         <v>1433.299678999773</v>
       </c>
       <c r="N23" t="n">
-        <v>1851.806793600545</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073379</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q23" t="n">
         <v>2479.400528215969</v>
@@ -6023,7 +6023,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W23" t="n">
         <v>2028.08193847085</v>
@@ -6032,7 +6032,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G24" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
-        <v>111.3548208951924</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553811</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254967</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6090,22 +6090,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
         <v>1267.641586535707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.90950739287319</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C25" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D25" t="n">
-        <v>58.54756592704302</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E25" t="n">
-        <v>74.031305562744</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F25" t="n">
-        <v>89.05279011354052</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>87.9401779889228</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H25" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I25" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J25" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K25" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L25" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N25" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O25" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P25" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q25" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R25" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S25" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T25" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U25" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V25" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X25" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="26">
@@ -6203,64 +6203,64 @@
         <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.425607044544</v>
+        <v>1386.425607044543</v>
       </c>
       <c r="D26" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.737273613386</v>
+        <v>878.7372736133863</v>
       </c>
       <c r="F26" t="n">
         <v>594.5467585413127</v>
       </c>
       <c r="G26" t="n">
-        <v>308.403447613257</v>
+        <v>308.4034476132567</v>
       </c>
       <c r="H26" t="n">
-        <v>105.542848828322</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006429</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183886</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.833989576298</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
-        <v>1625.447614002349</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039154</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684951</v>
+        <v>2518.438342684953</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313967</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173467</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743716</v>
+        <v>3134.316282743717</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991826</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340594</v>
+        <v>2982.649712340595</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W26" t="n">
         <v>2418.132198661399</v>
@@ -6297,10 +6297,10 @@
         <v>231.0064684181153</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0686109648133</v>
+        <v>131.0686109648134</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042388</v>
+        <v>252.63456650424</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836754</v>
+        <v>212.9792725836765</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291944</v>
+        <v>189.8680550291953</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082696</v>
+        <v>167.8197164082703</v>
       </c>
       <c r="F28" t="n">
-        <v>145.299737051803</v>
+        <v>145.2997370518036</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374093</v>
+        <v>106.3406640374097</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443948</v>
+        <v>76.92869443443968</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487435</v>
       </c>
       <c r="J28" t="n">
-        <v>131.198684289868</v>
+        <v>131.1986842898678</v>
       </c>
       <c r="K28" t="n">
-        <v>292.1773302074744</v>
+        <v>164.8028720345112</v>
       </c>
       <c r="L28" t="n">
-        <v>392.7844096077339</v>
+        <v>265.4099514347707</v>
       </c>
       <c r="M28" t="n">
-        <v>638.1523739082986</v>
+        <v>510.7779157353352</v>
       </c>
       <c r="N28" t="n">
-        <v>771.9133218262587</v>
+        <v>756.5747156578984</v>
       </c>
       <c r="O28" t="n">
-        <v>997.7514264949112</v>
+        <v>982.4128203265509</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.719910223049</v>
+        <v>1060.719910223052</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142493</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374627</v>
+        <v>1130.76281437463</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396071</v>
+        <v>1047.013727396074</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295063</v>
+        <v>943.7954498295086</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363625</v>
+        <v>786.5658859363646</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125414</v>
+        <v>655.7912571125433</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476968</v>
+        <v>499.5955312476986</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608289</v>
+        <v>398.3037427608305</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.2292595708623</v>
+        <v>306.2292595708637</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093979</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044542</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
-        <v>1143.562317889522</v>
+        <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133851</v>
+        <v>878.7372736133864</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413118</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G29" t="n">
-        <v>308.403447613256</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H29" t="n">
-        <v>105.542848828322</v>
+        <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.6863256548743</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006429</v>
+        <v>262.0593281006428</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183886</v>
+        <v>584.4800274945165</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.833989576298</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M29" t="n">
-        <v>1625.447614002349</v>
+        <v>1580.353483178476</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039153</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.43834268495</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313966</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173466</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743715</v>
+        <v>3134.316282743716</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.047982991825</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340592</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672343</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661398</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800647</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>131.0686109648133</v>
       </c>
       <c r="I30" t="n">
-        <v>62.6863256548743</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J30" t="n">
-        <v>122.9404721879804</v>
+        <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
         <v>352.4310247481691</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182847</v>
+        <v>718.2528699182848</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042388</v>
+        <v>252.6345665042398</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836754</v>
+        <v>212.9792725836763</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291944</v>
+        <v>189.8680550291952</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082696</v>
+        <v>167.8197164082702</v>
       </c>
       <c r="F31" t="n">
-        <v>145.299737051803</v>
+        <v>145.2997370518035</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374093</v>
+        <v>106.3406640374097</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443946</v>
+        <v>76.92869443443963</v>
       </c>
       <c r="I31" t="n">
-        <v>62.6863256548743</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J31" t="n">
-        <v>131.1986842898679</v>
+        <v>131.1986842898678</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074743</v>
+        <v>164.8028720345112</v>
       </c>
       <c r="L31" t="n">
-        <v>392.7844096077338</v>
+        <v>392.7844096077336</v>
       </c>
       <c r="M31" t="n">
-        <v>526.1165219036953</v>
+        <v>510.7779157353353</v>
       </c>
       <c r="N31" t="n">
-        <v>771.9133218262587</v>
+        <v>756.5747156578984</v>
       </c>
       <c r="O31" t="n">
-        <v>997.7514264949112</v>
+        <v>870.3769683219512</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.719910223049</v>
+        <v>1060.719910223052</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142493</v>
+        <v>1150.323920142495</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374627</v>
+        <v>1130.762814374629</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396071</v>
+        <v>1047.013727396073</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295063</v>
+        <v>943.7954498295082</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363625</v>
+        <v>786.5658859363642</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125414</v>
+        <v>655.791257112543</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476968</v>
+        <v>499.5955312476983</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608289</v>
+        <v>398.3037427608302</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708623</v>
+        <v>306.2292595708635</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>843.4407289646301</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.44704179677</v>
       </c>
       <c r="G32" t="n">
         <v>289.5005587729277</v>
@@ -6695,25 +6695,25 @@
         <v>94.83678789220662</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297226</v>
       </c>
       <c r="J32" t="n">
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443256</v>
+        <v>538.1905678988583</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.484110185686</v>
+        <v>1021.484110185687</v>
       </c>
       <c r="M32" t="n">
         <v>1550.131445640657</v>
       </c>
       <c r="N32" t="n">
-        <v>2063.870973530255</v>
+        <v>1928.462804328373</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.283727204971</v>
+        <v>2368.875558003089</v>
       </c>
       <c r="P32" t="n">
         <v>2732.440623661025</v>
@@ -6722,10 +6722,10 @@
         <v>2962.281046549444</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148612</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300936</v>
+        <v>2959.783159300937</v>
       </c>
       <c r="T32" t="n">
         <v>2873.581716553917</v>
@@ -6743,7 +6743,7 @@
         <v>2089.782049630825</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.397697728633</v>
+        <v>1834.397697728632</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297226</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6847,34 +6847,34 @@
         <v>118.200020307261</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708063</v>
+        <v>87.43777519708064</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832409</v>
+        <v>66.2226334983241</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297226</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>60.17709262297226</v>
       </c>
       <c r="K34" t="n">
-        <v>170.3273500315288</v>
+        <v>93.78128036761566</v>
       </c>
       <c r="L34" t="n">
-        <v>270.9344294317883</v>
+        <v>329.7965289697576</v>
       </c>
       <c r="M34" t="n">
-        <v>388.9279355593901</v>
+        <v>447.7900350973593</v>
       </c>
       <c r="N34" t="n">
-        <v>507.3502773089904</v>
+        <v>701.6205460488421</v>
       </c>
       <c r="O34" t="n">
-        <v>741.2220930065625</v>
+        <v>935.4923617464142</v>
       </c>
       <c r="P34" t="n">
-        <v>919.0277196948147</v>
+        <v>998.460845474552</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6914,25 +6914,25 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
         <v>287.5669931259238</v>
@@ -6941,16 +6941,16 @@
         <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>915.768494168709</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N35" t="n">
         <v>1851.806793600545</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2156.811378073379</v>
       </c>
       <c r="P35" t="n">
         <v>2384.968274529432</v>
@@ -6962,13 +6962,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702244</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>81.02642599070934</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>96.04791054150587</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>94.93529841688814</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672917</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7175,10 +7175,10 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.236268659741</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M38" t="n">
         <v>1473.475434912829</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208574</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>89.05279011354052</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>87.9401779889228</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228439</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I40" t="n">
-        <v>82.50168994950198</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7406,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>567.8831210837625</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L41" t="n">
-        <v>915.7684941687087</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421797</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.500500038399</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,10 +7512,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S42" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T42" t="n">
         <v>2168.477475838063</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P43" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R43" t="n">
         <v>629.3786802696717</v>
@@ -7600,19 +7600,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W43" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X43" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="44">
@@ -7628,34 +7628,34 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259238</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707066</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556529</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M44" t="n">
-        <v>1433.299678999773</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N44" t="n">
         <v>1851.806793600545</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E45" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G45" t="n">
         <v>219.4208171253267</v>
@@ -7722,13 +7722,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S45" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y45" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749095</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E46" t="n">
-        <v>66.58441399778671</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F46" t="n">
-        <v>81.60589854858324</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G46" t="n">
-        <v>80.49328642396551</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>88.75993133416416</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912145</v>
+        <v>79.39795846875508</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437649</v>
+        <v>113.0021462133985</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440244</v>
+        <v>213.609225613658</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716261</v>
+        <v>331.6027317412597</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212265</v>
+        <v>450.0250734908601</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169162</v>
+        <v>548.4887199865498</v>
       </c>
       <c r="P46" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.266068145054</v>
+        <v>611.4572037146876</v>
       </c>
       <c r="R46" t="n">
-        <v>628.266068145054</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761172</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433853</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>369.9204764532261</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>389.530073272761</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,16 +8058,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>223.8247937300773</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>600.652929433923</v>
+        <v>600.5093156331768</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8222,10 +8222,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>460.17323135563</v>
       </c>
       <c r="N5" t="n">
-        <v>539.7427543854139</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8234,7 +8234,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8301,19 +8301,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>600.5093156331779</v>
+        <v>600.6529294339227</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>179.1857463911352</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8544,13 +8544,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>367.9315448499079</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.0110038467633</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -9258,7 +9258,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.918345942532</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>150.9525308698857</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.3754815900803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250307</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.432740628322293</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348596</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673262</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>109.5099714171829</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046127</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>239.0478939541492</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>79.194569388259</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091663</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>65.77078304951158</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250307</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790356</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>75.80708752665376</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>137.045482048545</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.85410989351723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1133331.612887067</v>
+        <v>1133331.612887066</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1133331.612887067</v>
+        <v>1133331.612887066</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>38381.2030247091</v>
       </c>
       <c r="C2" t="n">
+        <v>38381.20302470908</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38381.20302470909</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33333.28273197255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33333.28273197255</v>
+      </c>
+      <c r="G2" t="n">
         <v>38381.2030247091</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38381.20302470908</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33333.28273197256</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33333.28273197253</v>
-      </c>
-      <c r="G2" t="n">
-        <v>38381.20302470911</v>
       </c>
       <c r="H2" t="n">
         <v>38381.2030247091</v>
       </c>
       <c r="I2" t="n">
+        <v>38381.2030247091</v>
+      </c>
+      <c r="J2" t="n">
+        <v>38381.20302470908</v>
+      </c>
+      <c r="K2" t="n">
         <v>38381.20302470909</v>
       </c>
-      <c r="J2" t="n">
-        <v>38381.20302470907</v>
-      </c>
-      <c r="K2" t="n">
-        <v>38381.20302470907</v>
-      </c>
       <c r="L2" t="n">
-        <v>38381.20302470906</v>
+        <v>38381.20302470905</v>
       </c>
       <c r="M2" t="n">
+        <v>38381.2030247091</v>
+      </c>
+      <c r="N2" t="n">
         <v>38381.20302470908</v>
-      </c>
-      <c r="N2" t="n">
-        <v>38381.2030247091</v>
       </c>
       <c r="O2" t="n">
         <v>38381.2030247091</v>
       </c>
       <c r="P2" t="n">
-        <v>38381.2030247091</v>
+        <v>38381.20302470905</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.913450651</v>
+        <v>165529.9134506509</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.03820874667</v>
+        <v>9743.038208746755</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>210668.4794422433</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207618</v>
+        <v>65879.57388207628</v>
       </c>
       <c r="M3" t="n">
         <v>23482.5093245656</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.1689073238</v>
+        <v>43541.16890732364</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26439,10 +26439,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26457,7 +26457,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402357</v>
+        <v>175623.1205402356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266585</v>
+        <v>63659.01753266584</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266585</v>
+        <v>63659.01753266584</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46561.98765560957</v>
+        <v>46561.98765560956</v>
       </c>
       <c r="F5" t="n">
         <v>46561.98765560956</v>
@@ -26488,19 +26488,19 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
+        <v>58458.01489582855</v>
+      </c>
+      <c r="K5" t="n">
         <v>58458.01489582854</v>
-      </c>
-      <c r="K5" t="n">
-        <v>58458.01489582853</v>
       </c>
       <c r="L5" t="n">
         <v>57233.20592541149</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264636</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-385036.7610189577</v>
       </c>
       <c r="C6" t="n">
-        <v>-219506.8475683067</v>
+        <v>-219506.8475683068</v>
       </c>
       <c r="D6" t="n">
         <v>-222703.6291542422</v>
       </c>
       <c r="E6" t="n">
-        <v>-238801.23133473</v>
+        <v>-239053.6273493667</v>
       </c>
       <c r="F6" t="n">
-        <v>-131410.4302589665</v>
+        <v>-131662.8262736032</v>
       </c>
       <c r="G6" t="n">
-        <v>-249432.4205901121</v>
+        <v>-249432.4205901122</v>
       </c>
       <c r="H6" t="n">
-        <v>-190044.734408173</v>
+        <v>-190044.7344081729</v>
       </c>
       <c r="I6" t="n">
-        <v>-190044.734408173</v>
+        <v>-190044.7344081729</v>
       </c>
       <c r="J6" t="n">
-        <v>-407114.1042491549</v>
+        <v>-407114.1042491547</v>
       </c>
       <c r="K6" t="n">
-        <v>-196445.6248069115</v>
+        <v>-196445.6248069114</v>
       </c>
       <c r="L6" t="n">
-        <v>-260932.3933141793</v>
+        <v>-260932.3933141794</v>
       </c>
       <c r="M6" t="n">
         <v>-213527.2437327385</v>
       </c>
       <c r="N6" t="n">
-        <v>-190044.7344081729</v>
+        <v>-190044.734408173</v>
       </c>
       <c r="O6" t="n">
-        <v>-233585.9033154967</v>
+        <v>-233585.9033154966</v>
       </c>
       <c r="P6" t="n">
-        <v>-190044.7344081729</v>
+        <v>-190044.734408173</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662147</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662147</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26808,28 +26808,28 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="J4" t="n">
+        <v>783.5790706859293</v>
+      </c>
+      <c r="K4" t="n">
+        <v>783.5790706859291</v>
+      </c>
+      <c r="L4" t="n">
+        <v>752.2136577871532</v>
+      </c>
+      <c r="M4" t="n">
         <v>638.7584295260718</v>
-      </c>
-      <c r="J4" t="n">
-        <v>783.579070685929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>783.5790706859287</v>
-      </c>
-      <c r="L4" t="n">
-        <v>752.2136577871531</v>
-      </c>
-      <c r="M4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415475</v>
+        <v>54.42646113415455</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259521</v>
+        <v>82.34946735259535</v>
       </c>
       <c r="M2" t="n">
         <v>29.353136655707</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415475</v>
+        <v>54.42646113415455</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662147</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877562</v>
+        <v>31.36541289877589</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260721</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742399</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415475</v>
+        <v>54.42646113415455</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662147</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877562</v>
+        <v>31.36541289877589</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27433,16 +27433,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>79.85105706626513</v>
       </c>
       <c r="X2" t="n">
-        <v>213.4331101470067</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.6486724370481</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>89.9739929004933</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>40.87452179009279</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.68413607146346</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27622,7 +27622,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>160.3684299752762</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>47.72043602212761</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>133.490818983836</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>111.6308019127719</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>15.7076357194797</v>
       </c>
       <c r="V7" t="n">
-        <v>14.68413607146329</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27853,10 +27853,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.6642143725314</v>
+        <v>193.2317291262455</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>55.87319501063091</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>27.43752473892752</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12.59411422036217</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28026,13 +28026,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>100.1660578126913</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28068,7 +28068,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>79.49647998155575</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503295</v>
+        <v>79.49647998155555</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="12">
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>14.56549128550398</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>79.49647998155595</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>79.49647998155569</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503295</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="17">
@@ -28588,10 +28588,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>40.58157162934944</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,10 +28600,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>166.1290651424569</v>
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>14.5654912855037</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28728,19 +28728,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="E19" t="n">
-        <v>166.1290651424569</v>
+        <v>156.1340020796759</v>
       </c>
       <c r="F19" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
-        <v>144.0453821172203</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28822,7 +28822,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>40.58157162934948</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>166.1290651424569</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,7 +29059,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
         <v>166.1290651424569</v>
@@ -29068,10 +29068,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>40.58157162934947</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40.58157162934955</v>
       </c>
       <c r="R23" t="n">
         <v>166.1290651424569</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29199,19 +29199,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>159.0632869323909</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N26" t="n">
-        <v>83.11144176675703</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675964</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K28" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N28" t="n">
-        <v>15.49354158420168</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>15.4935415842056</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675859</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N29" t="n">
-        <v>83.11144176675612</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="M31" t="n">
-        <v>15.49354158420181</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O31" t="n">
-        <v>128.6610688615787</v>
+        <v>15.4935415842051</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="32">
@@ -29773,22 +29773,22 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
+        <v>30.77413106708602</v>
+      </c>
+      <c r="L32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="L32" t="n">
-        <v>30.77413106708548</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
         <v>136.7759284867499</v>
@@ -29928,28 +29928,28 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="O34" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="P34" t="n">
-        <v>115.9971141011256</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.7759284867499</v>
+        <v>56.54044790115664</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30013,13 +30013,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>40.58157162934975</v>
       </c>
       <c r="M35" t="n">
-        <v>40.58157162934924</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>159.0632869323909</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30247,13 +30247,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>40.5815716293493</v>
-      </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>40.58157162934924</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30384,13 +30384,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>159.0632869323909</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30399,10 +30399,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>74.42408546687525</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30484,7 +30484,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
-        <v>40.58157162934944</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>40.5815716293491</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30724,13 +30724,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934924</v>
       </c>
       <c r="N44" t="n">
-        <v>40.58157162934901</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30861,22 +30861,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>150.2831266452243</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>88.03978145923097</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S46" t="n">
         <v>166.1290651424569</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>191.0974724791794</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>201.6532642216045</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>111.2493601589295</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662147</v>
+        <v>493.7941745654686</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34942,10 +34942,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>273.0169168584709</v>
       </c>
       <c r="N5" t="n">
-        <v>353.3446402131838</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -34954,7 +34954,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.7941745654697</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>65.45055494624272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.27581240187084</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>164.6202597107962</v>
       </c>
       <c r="K11" t="n">
-        <v>334.4604897835004</v>
+        <v>334.4604897835003</v>
       </c>
       <c r="L11" t="n">
         <v>443.2938241675039</v>
@@ -35419,19 +35419,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>461.649367544905</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>322.3559689868039</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>174.8825948164414</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927762</v>
+        <v>2.162553775927734</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
@@ -35574,19 +35574,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N13" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P13" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>152.2222822773192</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
@@ -35653,13 +35653,13 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>476.7077590250789</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
       </c>
       <c r="O14" t="n">
-        <v>399.9798962764814</v>
+        <v>399.9798962764813</v>
       </c>
       <c r="P14" t="n">
         <v>322.3559689868039</v>
@@ -35668,7 +35668,7 @@
         <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927762</v>
+        <v>2.162553775927734</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506395</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
@@ -35811,19 +35811,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P16" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218509</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5660323684674</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
@@ -35896,10 +35896,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
         <v>261.5151799773428</v>
@@ -35978,10 +35978,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36024,19 +36024,19 @@
         <v>14.58789090194205</v>
       </c>
       <c r="E19" t="n">
-        <v>15.6401410461626</v>
+        <v>5.645077983381531</v>
       </c>
       <c r="F19" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
-        <v>1.284368163872024</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251128</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36133,7 +36133,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
         <v>396.5905767142278</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
@@ -36297,10 +36297,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
         <v>408.6950975109244</v>
@@ -36364,10 +36364,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>422.7344591926987</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
@@ -36376,7 +36376,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>135.9676864642354</v>
       </c>
       <c r="R23" t="n">
         <v>76.39716150335175</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586534</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36495,19 +36495,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.522112691876037</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.386871157342</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300462</v>
+        <v>371.227101230046</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140497</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051019</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N26" t="n">
-        <v>465.2643293301062</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230272</v>
+        <v>391.1968806282081</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333496</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964646</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247356</v>
+        <v>38.92916522247339</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160975</v>
+        <v>69.20440266160958</v>
       </c>
       <c r="K28" t="n">
-        <v>162.6046928460671</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>247.846428586429</v>
+        <v>247.8464285864288</v>
       </c>
       <c r="N28" t="n">
-        <v>135.112068604</v>
+        <v>248.2795958813769</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451037</v>
+        <v>228.1192976451035</v>
       </c>
       <c r="P28" t="n">
-        <v>63.604529018321</v>
+        <v>79.0980706025266</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.50910092873089</v>
+        <v>90.50910092873072</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.386871157342</v>
+        <v>201.3868711573419</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300462</v>
+        <v>325.677474135226</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140497</v>
+        <v>480.0604356140495</v>
       </c>
       <c r="M29" t="n">
-        <v>525.8723479051019</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>465.2643293301053</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230272</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333496</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964646</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247356</v>
+        <v>38.92916522247342</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160975</v>
+        <v>69.20440266160961</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460671</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
-        <v>101.6233125255146</v>
+        <v>230.2843813870932</v>
       </c>
       <c r="M31" t="n">
-        <v>134.678901309052</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813771</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O31" t="n">
-        <v>228.1192976451037</v>
+        <v>114.95177036773</v>
       </c>
       <c r="P31" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873089</v>
+        <v>90.50910092873075</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552174</v>
+        <v>273.3401634355534</v>
       </c>
       <c r="L32" t="n">
-        <v>382.1734978195564</v>
+        <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
-        <v>518.9288160500992</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
         <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
         <v>232.1620433216358</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678094</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.3992410122646</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>256.3944555065483</v>
       </c>
       <c r="O34" t="n">
         <v>236.2341572702749</v>
       </c>
       <c r="P34" t="n">
-        <v>179.6016431194466</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390208</v>
+        <v>18.38847996830879</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818207</v>
       </c>
       <c r="M35" t="n">
-        <v>437.7928506728724</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.284368163872024</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>119.6185270197983</v>
+        <v>166.3041438497513</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37543,13 +37543,13 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9809383818202</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>8.107438507910286</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,10 +37695,10 @@
         <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.96741926690626</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37780,7 +37780,7 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
-        <v>283.1476039978169</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37798,7 +37798,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>135.967686464235</v>
       </c>
       <c r="R41" t="n">
         <v>76.39716150335175</v>
@@ -37877,7 +37877,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37956,10 +37956,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
-        <v>563.3403441859801</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N44" t="n">
-        <v>422.7344591926982</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38038,7 +38038,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38157,22 +38157,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.522112691876044</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>28.58311525926197</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.10250157069135</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
